--- a/Test_Book.xlsx
+++ b/Test_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashad\Documents\Python Projects\Automate_Friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40BE84-CC1C-4B44-B3E3-04B3D33699CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF6DFD1-A85D-4359-B5C7-AB98BD0A6C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2490" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enq_NotAttached_AutoFill" sheetId="7" r:id="rId1"/>
@@ -3042,8 +3042,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A40:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3081,7 @@
         <v>44190</v>
       </c>
       <c r="B44" s="155">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44" s="155">
         <v>1</v>
@@ -3817,7 +3817,7 @@
   <dimension ref="A1:AE413"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,45 +4592,45 @@
         <v>44190</v>
       </c>
       <c r="B16" s="37">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="154">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" s="3">
         <v>39</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ref="E16:E80" si="1">D16/C16</f>
-        <v>0.22674418604651161</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F80" si="2">C16-D16</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G16" s="38">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2">
         <v>34</v>
       </c>
       <c r="J16" s="154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K16" s="216">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" s="154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M16" s="154">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N16" s="51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O16" s="154">
         <v>1</v>
@@ -4638,29 +4638,29 @@
       <c r="P16" s="52"/>
       <c r="Q16" s="52">
         <f t="shared" ref="Q16:Q60" si="3">M16*-1</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="R16" s="52">
         <f t="shared" ref="R16:R80" si="4">O16*-1</f>
         <v>-1</v>
       </c>
       <c r="S16" s="53">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="56">
         <f t="shared" ref="U16:U80" si="5">L16-(O16+M16)</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="39">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W16" s="154">
         <v>85</v>
       </c>
       <c r="X16" s="56">
         <f t="shared" ref="X16:X65" si="6">V16-W16-Y16</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="154">
         <v>87</v>
@@ -4672,16 +4672,16 @@
         <v>11</v>
       </c>
       <c r="AB16" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="40">
         <v>1</v>
       </c>
       <c r="AD16" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" s="40">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="54" customFormat="1" x14ac:dyDescent="0.25">
@@ -24301,7 +24301,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S419"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24725,20 +24727,20 @@
         <v>0</v>
       </c>
       <c r="J13" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13" s="217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="52">
         <f>[1]TotalAppsTimeSeriesData!L15*-1</f>
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="156"/>
       <c r="R13" s="183"/>
@@ -34614,8 +34616,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M837"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34831,7 +34833,7 @@
       <c r="D10" s="125"/>
       <c r="E10" s="126">
         <f>H17</f>
-        <v>10945</v>
+        <v>10954</v>
       </c>
       <c r="F10" s="127" t="e">
         <f ca="1">OFFSET([1]TotalAppsTimeSeriesData!A1,15,0)</f>
@@ -35011,7 +35013,7 @@
       </c>
       <c r="H16" s="151">
         <f>E10</f>
-        <v>10945</v>
+        <v>10954</v>
       </c>
       <c r="I16" s="151" t="e">
         <f ca="1">J10</f>
@@ -35033,7 +35035,7 @@
         <v>89</v>
       </c>
       <c r="H17" s="146">
-        <v>10945</v>
+        <v>10954</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="154"/>
@@ -48054,7 +48056,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O419"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
